--- a/HeOBackend/FileUpload/example.xlsx
+++ b/HeOBackend/FileUpload/example.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Account</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,6 +30,10 @@
   </si>
   <si>
     <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FacebookLink</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -355,7 +359,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -363,11 +367,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -378,7 +382,7 @@
     <col min="4" max="16384" width="33" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -388,6 +392,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/HeOBackend/FileUpload/example.xlsx
+++ b/HeOBackend/FileUpload/example.xlsx
@@ -33,7 +33,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FacebookLink</t>
+    <t>FacebookLink (範例格式 : https://www.facebook.com/profile.php?id=000000000000000)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,7 +371,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -379,7 +379,8 @@
     <col min="1" max="1" width="33" style="1"/>
     <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="33" style="1"/>
+    <col min="4" max="4" width="111.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="33" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
